--- a/report/reliability/by-unidade/Centro de Educação - CEDU.xlsx
+++ b/report/reliability/by-unidade/Centro de Educação - CEDU.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7969255730534901</v>
+        <v>0.783682503384294</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8126821702266316</v>
+        <v>0.8063409704503209</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8999670173702069</v>
+        <v>0.9006815004261626</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.26553935583267924</v>
+        <v>0.24258820774506304</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.338520103558096</v>
+        <v>4.1637148152881345</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.01356281424447863</v>
+        <v>0.013426316323957596</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.570060483870968</v>
+        <v>1.9759615384615385</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8035975624340976</v>
+        <v>0.7014296942973527</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.22139606570224918</v>
+        <v>0.18000349760744794</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.77796348193945</v>
+        <v>0.78729114658726</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7883023652847169</v>
+        <v>0.810229007803507</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8831856336722596</v>
+        <v>0.9041224312121097</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.25290611075851854</v>
+        <v>0.262423972918249</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.723718341704298</v>
+        <v>4.269509256528414</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.014822479756313456</v>
+        <v>0.013581930402840997</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04052107786010761</v>
+        <v>0.05612250072041633</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.1981312515627474</v>
+        <v>0.2094680685326843</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7791751002854004</v>
+        <v>0.7683911733659349</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7909833147569297</v>
+        <v>0.7883942868805344</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8832082503510519</v>
+        <v>0.8885332763300389</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.25596783362514797</v>
+        <v>0.23692132399399782</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.7843070462871258</v>
+        <v>3.725770326604712</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.014673092831762423</v>
+        <v>0.014315612774655513</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.03990140887761393</v>
+        <v>0.05875135001450291</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2303697866258391</v>
+        <v>0.14291085231035044</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7812425651477853</v>
+        <v>0.7724712383518957</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.791958723012202</v>
+        <v>0.7928852511261544</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8838094561361537</v>
+        <v>0.8911869599774229</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.25709500062992297</v>
+        <v>0.24186144782110136</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.8067384245995175</v>
+        <v>3.8282413755531444</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.014614107622401253</v>
+        <v>0.014014178517672173</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.0397441014160752</v>
+        <v>0.05887610011841633</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.20651379228670927</v>
+        <v>0.14291085231035044</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7859027073636533</v>
+        <v>0.7691690842072918</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7987829748966038</v>
+        <v>0.7820190707480548</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8857680261823792</v>
+        <v>0.8821052904717438</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2651852014747213</v>
+        <v>0.23015519490793007</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.9697583963690195</v>
+        <v>3.5875572850879403</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.01426017278076618</v>
+        <v>0.014567000953625415</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03898623657424959</v>
+        <v>0.04698375428127462</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.23653288497038755</v>
+        <v>0.1637913051526888</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7695105432659834</v>
+        <v>0.7463539774604349</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7947350199483683</v>
+        <v>0.7804039939678633</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8675880285328855</v>
+        <v>0.8809182745816588</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.26034267665224764</v>
+        <v>0.2284851950332743</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.8717516244050127</v>
+        <v>3.553816884327375</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.015664069148241998</v>
+        <v>0.016043672266568137</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03776641239658577</v>
+        <v>0.04675877146217622</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.20651379228670927</v>
+        <v>0.15226316047987037</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.767045520037108</v>
+        <v>0.7431276848562132</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7920507858187491</v>
+        <v>0.7777708243056514</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8655343540042545</v>
+        <v>0.8791468198704446</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2572017557909949</v>
+        <v>0.22579941870465853</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.8088664529811025</v>
+        <v>3.4998591965952666</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.015913969678084235</v>
+        <v>0.016388708903982238</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03776352233557862</v>
+        <v>0.04652476981321126</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.20651379228670927</v>
+        <v>0.15226316047987037</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7969322123399776</v>
+        <v>0.7824927143669057</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8163698877056568</v>
+        <v>0.8074991005415904</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8854291976184627</v>
+        <v>0.8964456020184687</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2878290605683118</v>
+        <v>0.25902054138936453</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.445729937784306</v>
+        <v>4.194780922133057</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.013434130121472203</v>
+        <v>0.013740889706763314</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.037413297781847814</v>
+        <v>0.050857422698450346</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.24279966243514545</v>
+        <v>0.2094680685326843</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8051018113900758</v>
+        <v>0.7793375051578056</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8175725635837369</v>
+        <v>0.8008711478782251</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8856780293623664</v>
+        <v>0.8873801879223262</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.28948057382737274</v>
+        <v>0.2510239426887037</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.481631599087972</v>
+        <v>4.021873974287071</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.012794736465128654</v>
+        <v>0.013239072476570784</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03668539979014175</v>
+        <v>0.0518018880113093</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.24279966243514545</v>
+        <v>0.2094680685326843</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7823146057661627</v>
+        <v>0.7876461890876205</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8017468650198095</v>
+        <v>0.8027326597187735</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8973137364202324</v>
+        <v>0.8939709924677418</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.26881422891768103</v>
+        <v>0.2532327020521528</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>4.044056428665908</v>
+        <v>4.069262851997648</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.014697386407301373</v>
+        <v>0.012545316328657137</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.0453165110916124</v>
+        <v>0.05280639612659842</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2124223447786593</v>
+        <v>0.2094680685326843</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7879607606717816</v>
+        <v>0.7644367144957244</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8056585445708341</v>
+        <v>0.7925249832171645</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.900602142272708</v>
+        <v>0.8975013033815822</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2737156216735219</v>
+        <v>0.24145966185773635</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>4.145582540748659</v>
+        <v>3.8198574243119676</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.014259307167051042</v>
+        <v>0.014655289749012621</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04552017613834699</v>
+        <v>0.06136429836979874</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.20477593103009223</v>
+        <v>0.15226316047987037</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.77517949908701</v>
+        <v>0.7749433632241355</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7924451696397222</v>
+        <v>0.8022668061210432</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8768454879401402</v>
+        <v>0.9015377604145642</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.25765980287528917</v>
+        <v>0.2526772751419961</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.8180039860512025</v>
+        <v>4.057319817592965</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.015076099500842639</v>
+        <v>0.013929553538235244</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.0406029439702017</v>
+        <v>0.06031646307786584</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.20477593103009223</v>
+        <v>0.15226316047987037</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7772235104118094</v>
+        <v>0.7588431675314141</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7946771710022995</v>
+        <v>0.786149112708706</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.878742352393444</v>
+        <v>0.8792754796599286</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2602744031984206</v>
+        <v>0.2345061893538575</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.870379026441327</v>
+        <v>3.6761554869672555</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.01495658936769982</v>
+        <v>0.014916179239731263</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04092223752294275</v>
+        <v>0.05643182143986635</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.20651379228670927</v>
+        <v>0.1449895188921435</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.760621076535603</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7876157806019256</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8807920478301254</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.23607983482279754</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.708447750186598</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.014820768451958238</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.056937983123215394</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.15226316047987037</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>496.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6079366046818733</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6729116100659495</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.645712714612694</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.533699055642696</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.471774193548387</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0304503660969058</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>496.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5818074026070948</v>
+        <v>0.2277903319787117</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.648362076878909</v>
+        <v>0.36489795890809423</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6224221891670514</v>
+        <v>0.2855372519042202</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.49230633549292596</v>
+        <v>0.212380230002285</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.933467741935484</v>
+        <v>0.9778225806451613</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.1744798422993117</v>
+        <v>0.14740892334252897</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>496.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5694813033642108</v>
+        <v>0.5325840377721488</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6393242164988404</v>
+        <v>0.6009514327920711</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6120182375987073</v>
+        <v>0.5642155087439451</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4937673952461388</v>
+        <v>0.4441538076084659</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4818548387096775</v>
+        <v>3.471774193548387</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.9907008982506886</v>
+        <v>1.0304503660969058</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>496.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5069345347838858</v>
+        <v>0.48850509154238025</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5744552970110863</v>
+        <v>0.5552254615696902</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5427129556211624</v>
+        <v>0.5127780960176237</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4039594887451261</v>
+        <v>0.38112537624653103</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.8588709677419355</v>
+        <v>3.933467741935484</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2178147076238324</v>
+        <v>1.1744798422993117</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>496.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6817502736958423</v>
+        <v>0.6989235826271015</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6132836720851698</v>
+        <v>0.6635789771015926</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6291042343816968</v>
+        <v>0.6835649688380138</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5585266161340792</v>
+        <v>0.670012283363826</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.3366935483870968</v>
+        <v>0.3850806451612903</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.8239551747877634</v>
+        <v>0.4871056483712116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>496.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7071596104764852</v>
+        <v>0.7272370551827774</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6384682313284684</v>
+        <v>0.6790365585069281</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6562849392623274</v>
+        <v>0.7015153159519558</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5804182222625808</v>
+        <v>0.6091454518102113</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.4455645161290323</v>
+        <v>1.3366935483870968</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.9594527384484421</v>
+        <v>1.8239551747877634</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>496.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.42747523037213353</v>
+        <v>0.7524621289754243</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3928921070961418</v>
+        <v>0.7038962048255593</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.35324690460452607</v>
+        <v>0.7293487001204637</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.2895882092928045</v>
+        <v>0.6323164139909613</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.4233870967741935</v>
+        <v>1.4455645161290323</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.4846614481119722</v>
+        <v>1.9594527384484421</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>496.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4223200874341056</v>
+        <v>0.3537195681818117</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.37964992897347366</v>
+        <v>0.39640024864692486</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3396481392055749</v>
+        <v>0.3579763399090311</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.25374496897710513</v>
+        <v>0.31639782697843505</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.534274193548387</v>
+        <v>0.8245967741935484</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7794661205431712</v>
+        <v>0.3806955870637</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>496.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5702466140521241</v>
+        <v>0.46328583337436235</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5453569972862334</v>
+        <v>0.47041706580790943</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4709311869998527</v>
+        <v>0.45272793110516313</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.4429660538025189</v>
+        <v>0.321095797804082</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.9173387096774193</v>
+        <v>2.4233870967741935</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5850379258737406</v>
+        <v>1.4846614481119722</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>496.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5005050639553251</v>
+        <v>0.4613823954012743</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5060566068316588</v>
+        <v>0.449972706390009</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.4199203110687944</v>
+        <v>0.41770062081207265</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.379884640776567</v>
+        <v>0.2874219963138515</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.3286290322580645</v>
+        <v>2.534274193548387</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3980025200060635</v>
+        <v>1.7794661205431712</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>496.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6202221301475792</v>
+        <v>0.595185611841809</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6347955141731473</v>
+        <v>0.5589444074992614</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6196620109198538</v>
+        <v>0.4880838362923387</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5275545564216427</v>
+        <v>0.4643818171258891</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.096774193548387</v>
+        <v>1.9173387096774193</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2834256863343443</v>
+        <v>1.5850379258737406</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>496.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6011773645911238</v>
+        <v>0.4880915069592574</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6138311028924416</v>
+        <v>0.4551137586791479</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5956031605363077</v>
+        <v>0.37273664164050835</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5101997263320365</v>
+        <v>0.3581295792929066</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.3286290322580645</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3980025200060635</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>496.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6259279923355415</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6233060095027487</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.609083641923038</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5282394649262062</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.096774193548387</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2834256863343443</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>496.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6106280402929699</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.608740288086577</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5918601104745297</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5153194444537431</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.0120967741935485</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.225921561709525</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.02217741935483871</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.06048387096774194</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0020161290322580645</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.34274193548387094</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.08870967741935484</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.02217741935483871</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.010080645161290322</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.04838709677419355</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2963709677419355</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.1774193548387097</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.44556451612903225</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.010080645161290322</v>
+        <v>0.02217741935483871</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06653225806451613</v>
+        <v>0.9778225806451613</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.008064516129032258</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3588709677419355</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4596774193548387</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.0967741935483871</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.010080645161290322</v>
+        <v>0.02217741935483871</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.03225806451612903</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.056451612903225805</v>
+        <v>0.0020161290322580645</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.35685483870967744</v>
+        <v>0.34274193548387094</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.07862903225806452</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.4657258064516129</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.6149193548387096</v>
+        <v>0.02217741935483871</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.04233870967741935</v>
+        <v>0.010080645161290322</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.004032258064516129</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.12298387096774194</v>
+        <v>0.2963709677419355</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.16129032258064516</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.05443548387096774</v>
+        <v>0.44556451612903225</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.6149193548387096</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.020161290322580645</v>
+        <v>0.3850806451612903</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.020161290322580645</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.08870967741935484</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.1310483870967742</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.17540322580645162</v>
+        <v>0.6149193548387096</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.15120967741935484</v>
+        <v>0.04233870967741935</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.02620967741935484</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.3911290322580645</v>
+        <v>0.12298387096774194</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.23387096774193547</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.02217741935483871</v>
+        <v>0.05443548387096774</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.17540322580645162</v>
+        <v>0.6149193548387096</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.1774193548387097</v>
+        <v>0.020161290322580645</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.1532258064516129</v>
+        <v>0.020161290322580645</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.10887096774193548</v>
+        <v>0.125</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.20161290322580644</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.18346774193548387</v>
+        <v>0.1310483870967742</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.3185483870967742</v>
+        <v>0.17540322580645162</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.13709677419354838</v>
+        <v>0.8245967741935484</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05846774193548387</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.28024193548387094</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.2056451612903226</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.18548387096774194</v>
+        <v>0.17540322580645162</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.11290322580645161</v>
+        <v>0.15120967741935484</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.0846774193548387</v>
+        <v>0.02620967741935484</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4213709677419355</v>
+        <v>0.3911290322580645</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.19556451612903225</v>
+        <v>0.23387096774193547</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.02217741935483871</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
+        <v>0.17540322580645162</v>
+      </c>
+      <c r="C53" t="n" s="110">
         <v>0.1774193548387097</v>
       </c>
-      <c r="C53" t="n" s="110">
-        <v>0.09274193548387097</v>
-      </c>
       <c r="D53" t="n" s="111">
-        <v>0.3387096774193548</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.23790322580645162</v>
+        <v>0.10887096774193548</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.1532258064516129</v>
+        <v>0.20161290322580644</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.18346774193548387</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.17943548387096775</v>
+        <v>0.3185483870967742</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.0846774193548387</v>
+        <v>0.13709677419354838</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.4012096774193548</v>
+        <v>0.05846774193548387</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.21370967741935484</v>
+        <v>0.28024193548387094</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.12096774193548387</v>
+        <v>0.2056451612903226</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.18548387096774194</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.11290322580645161</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.0846774193548387</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4213709677419355</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.19556451612903225</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.1774193548387097</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.09274193548387097</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3387096774193548</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.23790322580645162</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.1532258064516129</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.17943548387096775</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.0846774193548387</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.4012096774193548</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.21370967741935484</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.12096774193548387</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8580211762858114</v>
+        <v>0.8674999553446223</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.861045334967205</v>
+        <v>0.9768829031085282</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8519699047862874</v>
+        <v>0.9659850384417508</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6077120584233743</v>
+        <v>0.933713416091232</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.196591778793381</v>
+        <v>42.25802693542003</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.010427346211169706</v>
+        <v>0.002339317935712858</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.686491935483871</v>
+        <v>1.055779569892473</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9274157599771659</v>
+        <v>1.3967342772781195</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6384390126644277</v>
+        <v>0.93319877740685</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8285490278663146</v>
+        <v>0.968280160059295</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8314951609654596</v>
+        <v>0.9695615376416562</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7750898998346842</v>
+        <v>0.9409213388858181</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6219066133958813</v>
+        <v>0.940921338885818</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.934547670734952</v>
+        <v>31.85317070971829</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.013057750905448745</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.0052043261575735345</v>
-      </c>
+        <v>0.0027867092577718816</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6431413565998836</v>
+        <v>0.9409213388858181</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8097929057449297</v>
+        <v>0.6081813934344165</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8167219308915212</v>
+        <v>0.9654452385477112</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7661652824516064</v>
+        <v>0.93319877740685</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5976497474572513</v>
+        <v>0.93319877740685</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.456190175203774</v>
+        <v>27.939571797673736</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.01490313532983506</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.011266911290090095</v>
-      </c>
+        <v>0.00658250381084023</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6337366687289717</v>
+        <v>0.93319877740685</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8141430813394224</v>
+        <v>0.6321767212407503</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8161005251937812</v>
+        <v>0.9621281237244022</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7646715851516268</v>
+        <v>0.9270201319810283</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5966523994078378</v>
+        <v>0.9270201319810283</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.437753430529011</v>
+        <v>25.40481799008027</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.014404833464291953</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.010692016026614397</v>
-      </c>
+        <v>0.0069642245228786264</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6431413565998836</v>
+        <v>0.9270201319810283</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8240460102960103</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8271366949796074</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7680102931210591</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6146394734325266</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.784917741113593</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.013603584486069036</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.004313319467955243</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6337366687289717</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>496.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.956160805557733</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9751972630071186</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9546693100849648</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9442527751051552</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.3850806451612903</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4871056483712116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>496.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8156878809292023</v>
+        <v>0.9830557079669251</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8274374854899557</v>
+        <v>0.9778302855331132</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7566230961730913</v>
+        <v>0.9615564976803816</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6809552372375748</v>
+        <v>0.9483094056611001</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.471774193548387</v>
+        <v>1.3366935483870968</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0304503660969058</v>
+        <v>1.8239551747877634</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>496.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8580869611603172</v>
+        <v>0.9856843796979986</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8490925775086081</v>
+        <v>0.9799369068440121</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7866602369449293</v>
+        <v>0.9664247531150485</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7256067780818678</v>
+        <v>0.9509085817135242</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.933467741935484</v>
+        <v>1.4455645161290323</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.1744798422993117</v>
+        <v>1.9594527384484421</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>496.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8381197727018133</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8499829507266206</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7889593528548169</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7231130844693908</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4818548387096775</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.9907008982506886</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>496.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8466027774586606</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8339251572698558</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7695162075864993</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6976869358989978</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.8588709677419355</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2178147076238324</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.6149193548387096</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.3850806451612903</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.6149193548387096</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.04233870967741935</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.004032258064516129</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.12298387096774194</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.05443548387096774</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.02217741935483871</v>
+        <v>0.6149193548387096</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.06048387096774194</v>
+        <v>0.020161290322580645</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0020161290322580645</v>
+        <v>0.020161290322580645</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.34274193548387094</v>
+        <v>0.125</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4838709677419355</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.08870967741935484</v>
+        <v>0.1310483870967742</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.02217741935483871</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.010080645161290322</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.04838709677419355</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2963709677419355</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.1774193548387097</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.44556451612903225</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.010080645161290322</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06653225806451613</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.008064516129032258</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3588709677419355</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4596774193548387</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.010080645161290322</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.056451612903225805</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.35685483870967744</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.07862903225806452</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4657258064516129</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8634275191210956</v>
+        <v>0.7703107847138004</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8714413761193411</v>
+        <v>0.8891285061660134</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7721720056710968</v>
+        <v>0.8498981625660785</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7721720056710968</v>
+        <v>0.7277541308938923</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>6.7785524596802</v>
+        <v>8.019450946492604</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.011789871566724163</v>
+        <v>0.008842215963439919</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.4788306451612905</v>
+        <v>1.9274193548387097</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.537101904953114</v>
+        <v>1.12241561199645</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7721720056710968</v>
+        <v>0.7535838296361272</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.7721720056710969</v>
+        <v>0.8634275191210956</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.7721720056710969</v>
+        <v>0.8714413761193411</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.5962496063421243</v>
+        <v>0.7721720056710968</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.7721720056710969</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7721720056710969</v>
-      </c>
+        <v>0.7721720056710968</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>6.7785524596802</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.011789871566724163</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.7721720056710969</v>
+        <v>0.7721720056710968</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5962496063421243</v>
+        <v>0.4239789094151629</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7721720056710969</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5962496063421243</v>
-      </c>
+        <v>0.7933682729026013</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.6575065573744531</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.657506557374453</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>3.839527859768774</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.01655679522023854</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7721720056710969</v>
+        <v>0.6575065573744531</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.5322434728614307</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8594785340744133</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.7535838296361272</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.7535838296361272</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>6.116350469397691</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.01425757718148652</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.7535838296361272</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>496.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9299043096048851</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9413214131398203</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8271703609333512</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7721720056710969</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.4233870967741935</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.4846614481119722</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>496.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.951752164006197</v>
+        <v>0.7927910307007549</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9413214131398203</v>
+        <v>0.8883460269008746</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.8271703609333512</v>
+        <v>0.7965677167067743</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7721720056710969</v>
+        <v>0.7445269228047596</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8245967741935484</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.3806955870637</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>496.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9341760681872817</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9305935494184467</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8906307466600307</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.8102373100365895</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.4233870967741935</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.4846614481119722</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>496.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9432602147205028</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8951946844281741</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.8149597809450513</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7806696649820319</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.534274193548387</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7794661205431712</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.17540322580645162</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.8245967741935484</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.17540322580645162</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.15120967741935484</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.02620967741935484</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.3911290322580645</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.23387096774193547</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.02217741935483871</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.17540322580645162</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.1774193548387097</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.1532258064516129</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.10887096774193548</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.20161290322580644</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.18346774193548387</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8949571787405377</v>
+        <v>0.6623611567714124</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8954765546318049</v>
+        <v>0.7927749246960287</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8107356692037404</v>
+        <v>0.7292594870065242</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8107356692037406</v>
+        <v>0.560482760283413</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.567231509422525</v>
+        <v>3.825670824503913</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.009404316591084644</v>
+        <v>0.013141214426381229</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.0544354838709675</v>
+        <v>2.7943548387096775</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1938649923972495</v>
+        <v>0.7000429266837028</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8107356692037406</v>
+        <v>0.5079115686372251</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8107356692037406</v>
+        <v>0.7973312866509152</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8107356692037406</v>
+        <v>0.8014264724747773</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6572923253192366</v>
+        <v>0.668650236360165</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8107356692037406</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8107356692037406</v>
-      </c>
+        <v>0.6686502363601652</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>4.035917992004146</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.01792331386390619</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8107356692037406</v>
+        <v>0.6686502363601651</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6572923253192366</v>
+        <v>0.22186039780010725</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8107356692037406</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6572923253192366</v>
-      </c>
+        <v>0.6709960969869437</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5048864758528491</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5048864758528491</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.039477619693513</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.015023746088677188</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8107356692037406</v>
+        <v>0.504886475852849</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.2493032683050418</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.673662274633585</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.507911568637225</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5079115686372251</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.0643101372272867</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.016449049430261674</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5079115686372251</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>496.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9537611197918636</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9515081894560184</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8567461685128732</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8107356692037406</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.096774193548387</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2834256863343443</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>496.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9492030333522541</v>
+        <v>0.6017562283478471</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9515081894560184</v>
+        <v>0.797944655485919</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8567461685128733</v>
+        <v>0.6128620140480503</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8107356692037406</v>
+        <v>0.5540596805787036</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.0120967741935485</v>
+        <v>0.9778225806451613</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.225921561709525</v>
+        <v>0.14740892334252897</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>496.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9002482636758151</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8628664283467398</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7718202334866979</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.6852060575204186</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.471774193548387</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0304503660969058</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>496.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9227603151631195</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8616671740915752</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.769430721290533</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.6861782527126125</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.933467741935484</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.1744798422993117</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.02217741935483871</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9778225806451613</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.02217741935483871</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.06048387096774194</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.0020161290322580645</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.34274193548387094</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.08870967741935484</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.02217741935483871</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.010080645161290322</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.04838709677419355</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2963709677419355</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.1774193548387097</v>
       </c>
-      <c r="C23" t="n" s="455">
-        <v>0.09274193548387097</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3387096774193548</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.23790322580645162</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.1532258064516129</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.17943548387096775</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.0846774193548387</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4012096774193548</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.21370967741935484</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.12096774193548387</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.44556451612903225</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.968280160059295</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9695615376416562</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9409213388858181</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.940921338885818</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>31.85317070971829</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0027867092577718816</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>1.3911290322580645</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.8635910635125696</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9409213388858181</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6326222211139234</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6360277926923996</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.4663055370811995</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.4663055370811995</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.7474625257715892</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.032662397494948855</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.122983870967742</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2780177073676988</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.46630553708119954</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9409213388858181</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9409213388858181</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.8853329659706805</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9409213388858181</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9409213388858181</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9409213388858181</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.4663055370811995</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.4663055370811995</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.21744085391258583</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.4663055370811995</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.4663055370811995</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.4663055370811995</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.8853329659706805</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9409213388858181</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.8853329659706805</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9409213388858181</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.21744085391258583</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.4663055370811995</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.21744085391258583</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.4663055370811995</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>496.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9840265229699136</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9851196218951833</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9555768689269583</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9409213388858183</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>1.3366935483870968</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.8239551747877634</v>
+      <c r="C17" t="n" s="545">
+        <v>0.875157765385503</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8562434049618133</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.58469923507466</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.4663055370811995</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.9173387096774193</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5850379258737406</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>496.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9861742620318885</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9851196218951833</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9555768689269583</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9409213388858183</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.4455645161290323</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.9594527384484421</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8361051920502923</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8562434049618133</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.58469923507466</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.46630553708119954</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.3286290322580645</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3980025200060635</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.6149193548387096</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.04233870967741935</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.004032258064516129</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.12298387096774194</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.05443548387096774</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.3185483870967742</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.13709677419354838</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.05846774193548387</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.28024193548387094</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.2056451612903226</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.6149193548387096</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.020161290322580645</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.020161290322580645</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.125</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.08870967741935484</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.1310483870967742</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.18548387096774194</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.11290322580645161</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.0846774193548387</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4213709677419355</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.19556451612903225</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6326222211139234</v>
+        <v>0.8949571787405377</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6360277926923996</v>
+        <v>0.8954765546318049</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.4663055370811995</v>
+        <v>0.8107356692037404</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.4663055370811995</v>
+        <v>0.8107356692037406</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.7474625257715892</v>
+        <v>8.567231509422525</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.032662397494948855</v>
+        <v>0.009404316591084644</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.122983870967742</v>
+        <v>2.0544354838709675</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2780177073676988</v>
+        <v>1.1938649923972495</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.46630553708119954</v>
+        <v>0.8107356692037406</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.4663055370811995</v>
+        <v>0.8107356692037406</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.4663055370811995</v>
+        <v>0.8107356692037406</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.21744085391258583</v>
+        <v>0.6572923253192366</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.4663055370811995</v>
+        <v>0.8107356692037406</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.4663055370811995</v>
+        <v>0.8107356692037406</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.4663055370811995</v>
+        <v>0.8107356692037406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.21744085391258583</v>
+        <v>0.6572923253192366</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.4663055370811995</v>
+        <v>0.8107356692037406</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.21744085391258583</v>
+        <v>0.6572923253192366</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.4663055370811995</v>
+        <v>0.8107356692037406</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>496.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.875157765385503</v>
+        <v>0.9537611197918636</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8562434049618133</v>
+        <v>0.9515081894560184</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.58469923507466</v>
+        <v>0.8567461685128732</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.4663055370811995</v>
+        <v>0.8107356692037406</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.9173387096774193</v>
+        <v>2.096774193548387</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5850379258737406</v>
+        <v>1.2834256863343443</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>496.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8361051920502923</v>
+        <v>0.9492030333522541</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8562434049618133</v>
+        <v>0.9515081894560184</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.58469923507466</v>
+        <v>0.8567461685128733</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.46630553708119954</v>
+        <v>0.8107356692037406</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.3286290322580645</v>
+        <v>2.0120967741935485</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3980025200060635</v>
+        <v>1.225921561709525</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.3185483870967742</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.13709677419354838</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.05846774193548387</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.28024193548387094</v>
+        <v>0.23790322580645162</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.2056451612903226</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.18548387096774194</v>
+        <v>0.17943548387096775</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.11290322580645161</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.0846774193548387</v>
+        <v>0.4012096774193548</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4213709677419355</v>
+        <v>0.21370967741935484</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.19556451612903225</v>
+        <v>0.12096774193548387</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8221498972451162</v>
+        <v>0.8100006302794454</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8333139488206515</v>
+        <v>0.8293291592313531</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9017004155835241</v>
+        <v>0.8984174493408591</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.33330232027726486</v>
+        <v>0.3270176948676985</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.999302238698026</v>
+        <v>4.8592316970861535</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.011866675046779518</v>
+        <v>0.011370419534605249</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.5883064516129033</v>
+        <v>1.990524193548387</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8701006297536432</v>
+        <v>0.8032075391383233</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2741632988912182</v>
+        <v>0.2787222501298647</v>
       </c>
     </row>
     <row r="7">
@@ -7421,86 +7592,86 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.8038771920079093</v>
+        <v>0.7951257073535967</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.8096373277863058</v>
+        <v>0.8029459763553263</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8828776709570352</v>
+        <v>0.8743890731096031</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.3209151712943074</v>
+        <v>0.3116503433447344</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>4.253130712923783</v>
+        <v>4.074750474535816</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.013016135473053528</v>
+        <v>0.012675177837010118</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.035828703090829715</v>
+        <v>0.03719481277456388</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.25284783561457785</v>
+        <v>0.27862766544185913</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.8073819986267199</v>
+        <v>0.7690204348916977</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8143270980299461</v>
+        <v>0.8006484775154843</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8838333131651697</v>
+        <v>0.8727947622174483</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.32764649445851884</v>
+        <v>0.30855739144623057</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.385815535760215</v>
+        <v>4.016264674264896</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.012669768850007737</v>
+        <v>0.014127625835683574</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.033274948464919865</v>
+        <v>0.03731093384001904</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.27466504278531817</v>
+        <v>0.27862766544185913</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.8080946762197588</v>
+        <v>0.7667625259511625</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8144735068669376</v>
+        <v>0.7978045578788446</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8837566470001628</v>
+        <v>0.8705142844530568</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.32785991086029953</v>
+        <v>0.30478899427311923</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>4.390065769651483</v>
+        <v>3.9457099008235814</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.012759349282718293</v>
+        <v>0.014459617228666488</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.033472729297558575</v>
+        <v>0.037151476556885554</v>
       </c>
       <c r="I13" t="n" s="753">
         <v>0.27862766544185913</v>
@@ -7508,205 +7679,205 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.8142333987996064</v>
+        <v>0.8177998933763395</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8221762078198582</v>
+        <v>0.8384107520823219</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8859611506962107</v>
+        <v>0.9031036484573427</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.33937896767485803</v>
+        <v>0.36568484258137307</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>4.623544452291089</v>
+        <v>5.188530566770453</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.012252292532571641</v>
+        <v>0.01155030900804631</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03088090653257391</v>
+        <v>0.04600483823759507</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.27862766544185913</v>
+        <v>0.2996328798109669</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.8006252611831973</v>
+        <v>0.7960746231153046</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8140300379793259</v>
+        <v>0.8112819912670703</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8750190833218354</v>
+        <v>0.8827674744491328</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.32721409516926564</v>
+        <v>0.3232528770597771</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.3772124763290075</v>
+        <v>4.298911358349388</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.01333750260680622</v>
+        <v>0.011976443643587983</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.03541782712740586</v>
+        <v>0.057354801190918736</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.26626391045390996</v>
+        <v>0.29218079328311075</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.8035765499262855</v>
+        <v>0.8038196986724641</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8172806956494834</v>
+        <v>0.818885144445264</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8775362147942699</v>
+        <v>0.8874784702909934</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.33199115398953644</v>
+        <v>0.3343863951658334</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.472875477249332</v>
+        <v>4.521358239428253</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.013176964590124452</v>
+        <v>0.011417898101404273</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.034919214486728585</v>
+        <v>0.05496173875261047</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.26933927281011033</v>
+        <v>0.29218079328311075</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7965931297976738</v>
+        <v>0.7949530422564619</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8174572112720004</v>
+        <v>0.8186068227688977</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8642323956581424</v>
+        <v>0.8956908003765595</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3322534462005323</v>
+        <v>0.33396909738930386</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.478167650271106</v>
+        <v>4.512886511304445</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.013851216178016473</v>
+        <v>0.012113618853760244</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.02995827939283578</v>
+        <v>0.05944033686470699</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2763481898225359</v>
+        <v>0.2724801518540005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7953470404787373</v>
+        <v>0.8043015633117014</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8147394370529051</v>
+        <v>0.8279754252328513</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8619727684190208</v>
+        <v>0.9002937974233923</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.3282480656395223</v>
+        <v>0.3484456740161732</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.397802878778747</v>
+        <v>4.813122929404666</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.01402761322218684</v>
+        <v>0.01144474146342394</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.030265830939179433</v>
+        <v>0.0571646872112149</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2763481898225359</v>
+        <v>0.30785887238355525</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8128450185572536</v>
+        <v>0.7830926174943608</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8267508235722809</v>
+        <v>0.807268773956408</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9002203665375722</v>
+        <v>0.8700577499590643</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.34650172109219757</v>
+        <v>0.31759105959168943</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.772033210312016</v>
+        <v>4.188572814733298</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.012659227220773636</v>
+        <v>0.012730644941749763</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.038958865681794894</v>
+        <v>0.054462645195600505</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.26933927281011033</v>
+        <v>0.2693392728101103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.8164223474663082</v>
+        <v>0.7862101865288815</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8295781260856425</v>
+        <v>0.8102972723919897</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9034009105343058</v>
+        <v>0.8725606650053476</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.35101417639361077</v>
+        <v>0.3218502738087504</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.867791364050676</v>
+        <v>4.271405491155281</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.012327193498451428</v>
+        <v>0.012591725684224295</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.03972350897018338</v>
+        <v>0.054162818278787286</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.28673121541543445</v>
+        <v>0.2747596274733237</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>496.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6420162284241859</v>
+        <v>0.7585685977640896</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7029448137379217</v>
+        <v>0.7160464998846686</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6712410739391658</v>
+        <v>0.7375029362805977</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5639568494656865</v>
+        <v>0.7309518834337767</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.471774193548387</v>
+        <v>0.3850806451612903</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0304503660969058</v>
+        <v>0.4871056483712116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>496.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.5986263958114337</v>
+        <v>0.7884673105635476</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6646281136988801</v>
+        <v>0.7337783278033967</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6328589809669048</v>
+        <v>0.758110694321599</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5009481136043156</v>
+        <v>0.6741329086578758</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.933467741935484</v>
+        <v>1.3366935483870968</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.1744798422993117</v>
+        <v>1.8239551747877634</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>496.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.5961985555822973</v>
+        <v>0.8103338836691184</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6634132838577101</v>
+        <v>0.7553824692177376</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6313986763317968</v>
+        <v>0.7828100176056664</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5149948568083194</v>
+        <v>0.6949867378020561</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.4818548387096775</v>
+        <v>1.4455645161290323</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.9907008982506886</v>
+        <v>1.9594527384484421</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>496.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.532459029759879</v>
+        <v>0.24904059577085003</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.5978433752485413</v>
+        <v>0.406267856834255</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.5612657496031408</v>
+        <v>0.3156750409038817</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.420669686162444</v>
+        <v>0.23171033469289265</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.8588709677419355</v>
+        <v>0.9778225806451613</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2178147076238324</v>
+        <v>0.14740892334252897</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>496.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6618674948131784</v>
+        <v>0.5685147884429657</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6670894594787851</v>
+        <v>0.6495294191127697</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6488319599437504</v>
+        <v>0.606732909462441</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5657816863466665</v>
+        <v>0.4718092855407249</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.096774193548387</v>
+        <v>3.471774193548387</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2834256863343443</v>
+        <v>1.0304503660969058</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>496.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6355445094968805</v>
+        <v>0.5028009112090928</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.639897015226761</v>
+        <v>0.5857011949227554</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6180531681015198</v>
+        <v>0.5343832303127481</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5394630500535459</v>
+        <v>0.3813412294781037</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.0120967741935485</v>
+        <v>3.933467741935484</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.225921561709525</v>
+        <v>1.1744798422993117</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>496.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.7241208865410536</v>
+        <v>0.6282398411050414</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.638403969695276</v>
+        <v>0.5880935542633158</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.6533571758339083</v>
+        <v>0.5049426374063707</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5979453496016419</v>
+        <v>0.4844981746145852</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>1.3366935483870968</v>
+        <v>1.9173387096774193</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.8239551747877634</v>
+        <v>1.5850379258737406</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>496.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.746602028809901</v>
+        <v>0.5340576738414595</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.6612037910312069</v>
+        <v>0.5050996461704995</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.6780427531511807</v>
+        <v>0.40929046837385447</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.6168633831784137</v>
+        <v>0.3917763661382237</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>1.4455645161290323</v>
+        <v>2.3286290322580645</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.9594527384484421</v>
+        <v>1.3980025200060635</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>496.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5915263446102288</v>
+        <v>0.6817016524040628</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5572985374081445</v>
+        <v>0.6819884990939176</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.4736961103048952</v>
+        <v>0.6652198052637708</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.45270477026973194</v>
+        <v>0.5807378347511077</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.9173387096774193</v>
+        <v>2.096774193548387</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5850379258737406</v>
+        <v>1.2834256863343443</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>496.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.534621599202478</v>
+        <v>0.6576720866209682</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5316122953416349</v>
+        <v>0.6575705139314393</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.436710189613395</v>
+        <v>0.6373093090437585</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.4046505813244519</v>
+        <v>0.5568669406347747</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.3286290322580645</v>
+        <v>2.0120967741935485</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3980025200060635</v>
+        <v>1.225921561709525</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.02217741935483871</v>
+        <v>0.6149193548387096</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.06048387096774194</v>
+        <v>0.3850806451612903</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.0020161290322580645</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.34274193548387094</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4838709677419355</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.08870967741935484</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.02217741935483871</v>
+        <v>0.6149193548387096</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.010080645161290322</v>
+        <v>0.04233870967741935</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.04838709677419355</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.2963709677419355</v>
+        <v>0.12298387096774194</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.1774193548387097</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.44556451612903225</v>
+        <v>0.05443548387096774</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.010080645161290322</v>
+        <v>0.6149193548387096</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.06653225806451613</v>
+        <v>0.020161290322580645</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.008064516129032258</v>
+        <v>0.020161290322580645</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3588709677419355</v>
+        <v>0.125</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.4596774193548387</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.0967741935483871</v>
+        <v>0.1310483870967742</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.010080645161290322</v>
+        <v>0.02217741935483871</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.03225806451612903</v>
+        <v>0.9778225806451613</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.056451612903225805</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.35685483870967744</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.07862903225806452</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.4657258064516129</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.1774193548387097</v>
+        <v>0.02217741935483871</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.09274193548387097</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.3387096774193548</v>
+        <v>0.0020161290322580645</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.23790322580645162</v>
+        <v>0.34274193548387094</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.1532258064516129</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.17943548387096775</v>
+        <v>0.02217741935483871</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.0846774193548387</v>
+        <v>0.010080645161290322</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.4012096774193548</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.21370967741935484</v>
+        <v>0.2963709677419355</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.12096774193548387</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.44556451612903225</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.6149193548387096</v>
+        <v>0.3185483870967742</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.04233870967741935</v>
+        <v>0.13709677419354838</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.004032258064516129</v>
+        <v>0.05846774193548387</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.12298387096774194</v>
+        <v>0.28024193548387094</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.16129032258064516</v>
+        <v>0.2056451612903226</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.05443548387096774</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.6149193548387096</v>
+        <v>0.18548387096774194</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.020161290322580645</v>
+        <v>0.11290322580645161</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.020161290322580645</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.125</v>
+        <v>0.4213709677419355</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.08870967741935484</v>
+        <v>0.19556451612903225</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.1310483870967742</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.3185483870967742</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.13709677419354838</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.05846774193548387</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.28024193548387094</v>
+        <v>0.23790322580645162</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.2056451612903226</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.18548387096774194</v>
+        <v>0.17943548387096775</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.11290322580645161</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.0846774193548387</v>
+        <v>0.4012096774193548</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4213709677419355</v>
+        <v>0.21370967741935484</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.19556451612903225</v>
+        <v>0.12096774193548387</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
